--- a/Teensy mapping.xlsx
+++ b/Teensy mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Teensy motor</t>
   </si>
@@ -36,6 +36,57 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t>move motor forward</t>
+  </si>
+  <si>
+    <t>move motor back</t>
+  </si>
+  <si>
+    <t>list of commands needed (output)</t>
+  </si>
+  <si>
+    <t>present Aluminum</t>
+  </si>
+  <si>
+    <t>present Attenuated</t>
+  </si>
+  <si>
+    <t>present no Object</t>
+  </si>
+  <si>
+    <t>Catch trail</t>
+  </si>
+  <si>
+    <t>list of commands needed (input)</t>
+  </si>
+  <si>
+    <t>motor at whisker</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>lickport</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>motor at start point</t>
+  </si>
+  <si>
+    <t>motor at object</t>
+  </si>
+  <si>
+    <t>object type pulses</t>
   </si>
 </sst>
 </file>
@@ -51,12 +102,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,8 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,9 +443,11 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,157 +460,281 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
         <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Teensy mapping.xlsx
+++ b/Teensy mapping.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
-  <si>
-    <t>Teensy motor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Teensy control</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Input/output</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
     <t>move motor forward</t>
   </si>
   <si>
@@ -71,15 +65,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>lickport</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
     <t>motor at start point</t>
   </si>
   <si>
@@ -87,6 +72,48 @@
   </si>
   <si>
     <t>object type pulses</t>
+  </si>
+  <si>
+    <t>Lick report</t>
+  </si>
+  <si>
+    <t>Lick port</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Teensy Motor</t>
+  </si>
+  <si>
+    <t>Dir spin</t>
+  </si>
+  <si>
+    <t>Step spin</t>
+  </si>
+  <si>
+    <t>Enable spin</t>
+  </si>
+  <si>
+    <t>Interput</t>
+  </si>
+  <si>
+    <t>Dir Linear</t>
+  </si>
+  <si>
+    <t>Step Linear</t>
+  </si>
+  <si>
+    <t>Enable Liner</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -102,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,30 +138,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,16 +187,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,309 +587,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.85546875" customWidth="1"/>
     <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>23</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>22</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>21</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>20</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>19</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21">
+        <v>17</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21">
+        <v>16</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27">
+        <v>9</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27">
+        <v>8</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21">
+        <v>7</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>0</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>1</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6">
+        <v>22</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6">
+        <v>21</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6">
+        <v>19</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>8</v>
+      </c>
+      <c r="B39" s="33">
+        <v>17</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33">
+        <v>16</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>10</v>
+      </c>
+      <c r="B41" s="33">
+        <v>15</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>11</v>
+      </c>
+      <c r="B42" s="33">
+        <v>14</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>12</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>13</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>14</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>15</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>16</v>
+      </c>
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>17</v>
+      </c>
+      <c r="B48" s="6">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>18</v>
+      </c>
+      <c r="B49" s="6">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>19</v>
+      </c>
+      <c r="B50" s="6">
+        <v>6</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>21</v>
+      </c>
+      <c r="B52" s="6">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B53" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3">
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
+      <c r="B54" s="9">
+        <v>2</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Teensy mapping.xlsx
+++ b/Teensy mapping.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lampl\Detection_task\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,140 +26,122 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
-    <t xml:space="preserve">Teensy control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input/output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list of commands needed (output)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list of commands needed (input)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move motor forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor at whisker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move motor back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor at start point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present Aluminum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor at object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present Attenuated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object type pulses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present no Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch trail FWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch trail BCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lick report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report aluminum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report muted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lick port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teensy Motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dir spin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step spin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable spin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dir Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable Liner</t>
+    <t>Teensy control</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Input/output</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>list of commands needed (output)</t>
+  </si>
+  <si>
+    <t>list of commands needed (input)</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>move motor forward</t>
+  </si>
+  <si>
+    <t>motor at whisker</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>move motor back</t>
+  </si>
+  <si>
+    <t>motor at start point</t>
+  </si>
+  <si>
+    <t>present Aluminum</t>
+  </si>
+  <si>
+    <t>motor at object</t>
+  </si>
+  <si>
+    <t>present Attenuated</t>
+  </si>
+  <si>
+    <t>object type pulses</t>
+  </si>
+  <si>
+    <t>present no Object</t>
+  </si>
+  <si>
+    <t>Catch trail</t>
+  </si>
+  <si>
+    <t>Catch trail FWD</t>
+  </si>
+  <si>
+    <t>Catch trail BCK</t>
+  </si>
+  <si>
+    <t>Lick report</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>report aluminum</t>
+  </si>
+  <si>
+    <t>report muted</t>
+  </si>
+  <si>
+    <t>report non</t>
+  </si>
+  <si>
+    <t>Lick port</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Teensy Motor</t>
+  </si>
+  <si>
+    <t>Dir spin</t>
+  </si>
+  <si>
+    <t>Step spin</t>
+  </si>
+  <si>
+    <t>Enable spin</t>
+  </si>
+  <si>
+    <t>Interput</t>
+  </si>
+  <si>
+    <t>Dir Linear</t>
+  </si>
+  <si>
+    <t>Step Linear</t>
+  </si>
+  <si>
+    <t>Enable Liner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="10">
@@ -215,257 +201,142 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -524,33 +395,307 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.14"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,15 +708,15 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -580,8 +725,8 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -589,36 +734,36 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="11">
         <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -627,18 +772,18 @@
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="11">
         <v>21</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -647,18 +792,18 @@
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="11">
         <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -667,15 +812,15 @@
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="11">
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -684,15 +829,15 @@
       <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="11">
         <v>18</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -702,11 +847,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="11">
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
@@ -714,11 +859,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="12">
         <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -728,8 +873,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -738,8 +883,8 @@
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -748,8 +893,8 @@
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -758,8 +903,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -770,11 +915,11 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="17">
         <v>11</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -784,11 +929,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="17">
         <v>10</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -798,11 +943,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="17">
         <v>9</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -812,11 +957,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="17">
         <v>8</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -826,11 +971,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="18">
         <v>7</v>
       </c>
       <c r="C20" s="18"/>
@@ -838,11 +983,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="18">
         <v>6</v>
       </c>
       <c r="C21" s="18"/>
@@ -850,38 +995,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>5</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
         <v>4</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>3</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -892,8 +1037,7 @@
       </c>
       <c r="D25" s="21"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>27</v>
       </c>
@@ -905,8 +1049,8 @@
       </c>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <v>0</v>
       </c>
       <c r="B31" s="26" t="s">
@@ -917,8 +1061,8 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
@@ -929,8 +1073,8 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
@@ -942,66 +1086,66 @@
       <c r="D33" s="27"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
         <v>3</v>
       </c>
-      <c r="B34" s="30" t="n">
+      <c r="B34" s="30">
         <v>22</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
         <v>4</v>
       </c>
-      <c r="B35" s="30" t="n">
+      <c r="B35" s="30">
         <v>21</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="31"/>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
         <v>5</v>
       </c>
-      <c r="B36" s="30" t="n">
+      <c r="B36" s="30">
         <v>20</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
         <v>6</v>
       </c>
-      <c r="B37" s="30" t="n">
+      <c r="B37" s="30">
         <v>19</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="31"/>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
         <v>7</v>
       </c>
-      <c r="B38" s="30" t="n">
+      <c r="B38" s="30">
         <v>18</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="31"/>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
         <v>8</v>
       </c>
-      <c r="B39" s="33" t="n">
+      <c r="B39" s="33">
         <v>17</v>
       </c>
       <c r="C39" s="33" t="s">
@@ -1011,11 +1155,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
         <v>9</v>
       </c>
-      <c r="B40" s="33" t="n">
+      <c r="B40" s="33">
         <v>16</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -1025,11 +1169,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
         <v>10</v>
       </c>
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="33">
         <v>15</v>
       </c>
       <c r="C41" s="33" t="s">
@@ -1039,11 +1183,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
         <v>11</v>
       </c>
-      <c r="B42" s="33" t="n">
+      <c r="B42" s="33">
         <v>14</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -1053,8 +1197,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
         <v>12</v>
       </c>
       <c r="B43" s="26" t="s">
@@ -1065,8 +1209,8 @@
       </c>
       <c r="D43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
         <v>13</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -1077,8 +1221,8 @@
       </c>
       <c r="D44" s="27"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
         <v>14</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -1089,8 +1233,8 @@
       </c>
       <c r="D45" s="27"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
         <v>15</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -1101,31 +1245,31 @@
       </c>
       <c r="D46" s="27"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
         <v>16</v>
       </c>
-      <c r="B47" s="30" t="n">
+      <c r="B47" s="30">
         <v>9</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="31"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
         <v>17</v>
       </c>
-      <c r="B48" s="30" t="n">
+      <c r="B48" s="30">
         <v>8</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="31"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="n">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
         <v>18</v>
       </c>
-      <c r="B49" s="30" t="n">
+      <c r="B49" s="30">
         <v>7</v>
       </c>
       <c r="C49" s="30" t="s">
@@ -1135,11 +1279,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="n">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
         <v>19</v>
       </c>
-      <c r="B50" s="30" t="n">
+      <c r="B50" s="30">
         <v>6</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -1149,11 +1293,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="n">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
         <v>20</v>
       </c>
-      <c r="B51" s="30" t="n">
+      <c r="B51" s="30">
         <v>5</v>
       </c>
       <c r="C51" s="30" t="s">
@@ -1163,11 +1307,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29" t="n">
-        <v>21</v>
-      </c>
-      <c r="B52" s="30" t="n">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>21</v>
+      </c>
+      <c r="B52" s="30">
         <v>4</v>
       </c>
       <c r="C52" s="30" t="s">
@@ -1177,11 +1321,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29" t="n">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
         <v>22</v>
       </c>
-      <c r="B53" s="30" t="n">
+      <c r="B53" s="30">
         <v>3</v>
       </c>
       <c r="C53" s="30" t="s">
@@ -1191,11 +1335,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="n">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="35">
         <v>23</v>
       </c>
-      <c r="B54" s="36" t="n">
+      <c r="B54" s="36">
         <v>2</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -1206,12 +1350,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Teensy mapping.xlsx
+++ b/Teensy mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Teensy control</t>
   </si>
@@ -153,7 +153,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +198,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
@@ -236,6 +230,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
   </fills>
@@ -368,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,58 +398,60 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +803,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,16 +817,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -829,20 +837,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="44">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="H3" t="s">
         <v>6</v>
       </c>
@@ -851,14 +859,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="48">
         <v>23</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="H4" t="s">
         <v>8</v>
       </c>
@@ -867,14 +875,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
+      <c r="A5" s="50">
         <v>3</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="51">
         <v>22</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="H5" t="s">
         <v>10</v>
       </c>
@@ -883,19 +891,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="61">
         <v>4</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="62">
         <v>21</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="66" t="str">
-        <f>D52</f>
-        <v>Aluminum</v>
-      </c>
+      <c r="C6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="63"/>
       <c r="H6" t="s">
         <v>12</v>
       </c>
@@ -904,16 +909,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="64">
         <v>5</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="65">
         <v>20</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="69" t="str">
+      <c r="C7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="66" t="str">
         <f>D51</f>
         <v>Attenuated</v>
       </c>
@@ -922,16 +927,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
+      <c r="A8" s="64">
         <v>6</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="65">
         <v>19</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="69" t="str">
+      <c r="C8" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="66" t="str">
         <f>D50</f>
         <v>No Object</v>
       </c>
@@ -940,259 +945,261 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="64">
         <v>7</v>
       </c>
-      <c r="B9" s="68">
-        <v>18</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="69" t="str">
+      <c r="B9" s="65">
+        <v>18</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="66" t="str">
         <f>D49</f>
         <v>Catch trail</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70">
+      <c r="A10" s="67">
         <v>8</v>
       </c>
-      <c r="B10" s="71">
-        <v>17</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="72" t="str">
+      <c r="B10" s="68">
+        <v>17</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="69" t="str">
         <f>D48</f>
         <v>move motor forward</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="50">
         <v>9</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="53">
         <v>16</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73">
+      <c r="A15" s="70">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="71"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
+      <c r="A16" s="72">
         <v>14</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="73">
         <v>11</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
+      <c r="A17" s="54">
         <v>15</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="55">
         <v>10</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="59" t="str">
+      <c r="C17" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="56" t="str">
         <f>D41</f>
         <v>Motor at position</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
+      <c r="A18" s="54">
         <v>16</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="55">
         <v>9</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="59" t="str">
+      <c r="C18" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="56" t="str">
         <f>D40</f>
         <v>R_object</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="57">
-        <v>17</v>
-      </c>
-      <c r="B19" s="58">
+      <c r="A19" s="54">
+        <v>17</v>
+      </c>
+      <c r="B19" s="55">
         <v>8</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="59" t="str">
+      <c r="C19" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="56" t="str">
         <f>D39</f>
         <v>R_aluminum</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
-        <v>18</v>
-      </c>
-      <c r="B20" s="61">
+      <c r="A20" s="57">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58">
         <v>7</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="59" t="str">
+      <c r="C20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="56" t="str">
         <f>D38</f>
         <v>R_attenuated</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="A21" s="57">
         <v>19</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="58">
         <v>6</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="59" t="str">
+      <c r="C21" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="56" t="str">
         <f>D37</f>
         <v>R_NON</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="A22" s="44">
         <v>20</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="45">
         <v>5</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="49" t="str">
+      <c r="C22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="46" t="str">
         <f>D36</f>
         <v>Catch at position</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="A23" s="44">
         <v>21</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="45">
         <v>4</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+      <c r="A24" s="44">
         <v>22</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="45">
         <v>3</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73">
+      <c r="A25" s="70">
         <v>23</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="74" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="71" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="26">
         <v>0</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="31"/>
+      <c r="C31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="34"/>
+      <c r="C32" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="32">
         <v>2</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="37"/>
+      <c r="C33" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="34"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,13 +1225,13 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="35">
         <v>5</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="36">
         <v>20</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1291,28 +1298,30 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
+      <c r="A41" s="38">
         <v>10</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="39">
         <v>15</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="43" t="s">
+      <c r="C41" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="A42" s="75">
         <v>11</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="76">
         <v>14</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
@@ -1323,50 +1332,50 @@
       <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="26">
         <v>13</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="31"/>
+      <c r="C44" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="29">
         <v>14</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="34"/>
+      <c r="C45" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="A46" s="32">
         <v>15</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="37"/>
+      <c r="C46" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62">
+      <c r="A47" s="59">
         <v>16</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="60">
         <v>9</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
@@ -1434,9 +1443,7 @@
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9">

--- a/Teensy mapping.xlsx
+++ b/Teensy mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Teensy control</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Water prize</t>
+  </si>
+  <si>
+    <t>R_reset</t>
   </si>
 </sst>
 </file>
@@ -802,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,8 +1130,12 @@
       <c r="B23" s="45">
         <v>4</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
@@ -1220,8 +1227,12 @@
       <c r="B35" s="21">
         <v>21</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">

--- a/Teensy mapping.xlsx
+++ b/Teensy mapping.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Teensy control</t>
   </si>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,9 @@
         <v>22</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="D5" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="56" t="str">
-        <f>D41</f>
+        <f>D34</f>
         <v>Motor at position</v>
       </c>
     </row>
@@ -1209,7 +1211,7 @@
       <c r="D33" s="34"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>3</v>
       </c>
@@ -1217,7 +1219,9 @@
         <v>22</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="40" t="s">
+        <v>30</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,9 +1321,6 @@
       </c>
       <c r="C41" s="39" t="s">
         <v>18</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
